--- a/Estrutura das tabelas.xlsx
+++ b/Estrutura das tabelas.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZE\Documents\Visual Studio 2015\Projects\Cap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZE\Documents\visual studio 2015\Projects\Cap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Parcelas" sheetId="1" r:id="rId1"/>
-    <sheet name="Deposito" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pedido" sheetId="4" r:id="rId1"/>
+    <sheet name="Parcelas" sheetId="1" r:id="rId2"/>
+    <sheet name="Deposito" sheetId="2" r:id="rId3"/>
+    <sheet name="Conta" sheetId="3" r:id="rId4"/>
+    <sheet name="Fornecedor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="266">
   <si>
     <t>cial</t>
   </si>
@@ -448,9 +450,6 @@
     <t>Parcelas</t>
   </si>
   <si>
-    <t>DEPÓSITO</t>
-  </si>
-  <si>
     <t>DEPOSITO</t>
   </si>
   <si>
@@ -539,6 +538,294 @@
   </si>
   <si>
     <t>SaldoExtrato</t>
+  </si>
+  <si>
+    <t>pedido</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>DataCompra</t>
+  </si>
+  <si>
+    <t>DataLanc</t>
+  </si>
+  <si>
+    <t>ValorPedido</t>
+  </si>
+  <si>
+    <t>Moeda</t>
+  </si>
+  <si>
+    <t>DataEntrega</t>
+  </si>
+  <si>
+    <t>QQuali</t>
+  </si>
+  <si>
+    <t>QPrazo</t>
+  </si>
+  <si>
+    <t>QQtde</t>
+  </si>
+  <si>
+    <t>QDescarga</t>
+  </si>
+  <si>
+    <t>QEPI</t>
+  </si>
+  <si>
+    <t>QNF</t>
+  </si>
+  <si>
+    <t>QAtend</t>
+  </si>
+  <si>
+    <t>TemRequisicao</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Contabil</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Incorp</t>
+  </si>
+  <si>
+    <t>InicialPor</t>
+  </si>
+  <si>
+    <t>InicialValor</t>
+  </si>
+  <si>
+    <t>AskDig</t>
+  </si>
+  <si>
+    <t>DigDone</t>
+  </si>
+  <si>
+    <t>Protocolo</t>
+  </si>
+  <si>
+    <t>DataProtocolo</t>
+  </si>
+  <si>
+    <t>ProtocoloPor</t>
+  </si>
+  <si>
+    <t>idOrcamento</t>
+  </si>
+  <si>
+    <t>IDUSUARIO_ANTERIOR</t>
+  </si>
+  <si>
+    <t>Depósito</t>
+  </si>
+  <si>
+    <t>fornecedor</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Fantasia</t>
+  </si>
+  <si>
+    <t>Razao</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Contato</t>
+  </si>
+  <si>
+    <t>Observacao</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>Ramo</t>
+  </si>
+  <si>
+    <t>Servico</t>
+  </si>
+  <si>
+    <t>Quesito</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>FornecePara</t>
+  </si>
+  <si>
+    <t>ntext</t>
+  </si>
+  <si>
+    <t>VerificacaoMaterial</t>
+  </si>
+  <si>
+    <t>VisitaFornecedor</t>
+  </si>
+  <si>
+    <t>AnaliseCurriculum</t>
+  </si>
+  <si>
+    <t>AtendeRequisitos</t>
+  </si>
+  <si>
+    <t>AtendeRequisitosTexto</t>
+  </si>
+  <si>
+    <t>EMail</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>DataQuesito</t>
+  </si>
+  <si>
+    <t>Visivel</t>
+  </si>
+  <si>
+    <t>Inscricao</t>
+  </si>
+  <si>
+    <t>Fpgto</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Favorecido</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>ContaObservacoes</t>
+  </si>
+  <si>
+    <t>Concessionaria</t>
+  </si>
+  <si>
+    <t>TipoConexao</t>
+  </si>
+  <si>
+    <t>LibEng</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>CofinsPor</t>
+  </si>
+  <si>
+    <t>ImpUmLanc</t>
+  </si>
+  <si>
+    <t>ImpIncPar</t>
+  </si>
+  <si>
+    <t>DepTakeFor</t>
+  </si>
+  <si>
+    <t>RM11</t>
+  </si>
+  <si>
+    <t>Lembrete</t>
+  </si>
+  <si>
+    <t>PagarNCont</t>
+  </si>
+  <si>
+    <t>EntregaNoturna</t>
+  </si>
+  <si>
+    <t>NegarCarteira</t>
+  </si>
+  <si>
+    <t>NegarOrcamento</t>
+  </si>
+  <si>
+    <t>AgregarAFolha</t>
+  </si>
+  <si>
+    <t>FornecedorMdo</t>
+  </si>
+  <si>
+    <t>CestaBasica</t>
+  </si>
+  <si>
+    <t>CONCRETEIRA</t>
+  </si>
+  <si>
+    <t>GUIA_FORNECEDOR</t>
+  </si>
+  <si>
+    <t>GUIA_EMAIL</t>
+  </si>
+  <si>
+    <t>RM_EMAIL_SOL_GUIA</t>
+  </si>
+  <si>
+    <t>IMPOSTO</t>
+  </si>
+  <si>
+    <t>ADMJUDCOMP</t>
   </si>
 </sst>
 </file>
@@ -554,7 +841,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -870,13 +1157,3232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X122"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" t="s">
+        <v>171</v>
+      </c>
+      <c r="W4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" t="s">
+        <v>171</v>
+      </c>
+      <c r="U5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V5" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" t="s">
+        <v>171</v>
+      </c>
+      <c r="T6" t="s">
+        <v>171</v>
+      </c>
+      <c r="U6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" t="s">
+        <v>171</v>
+      </c>
+      <c r="W9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" t="s">
+        <v>171</v>
+      </c>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" t="s">
+        <v>171</v>
+      </c>
+      <c r="W12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14" t="s">
+        <v>171</v>
+      </c>
+      <c r="W14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" t="s">
+        <v>171</v>
+      </c>
+      <c r="V15" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>171</v>
+      </c>
+      <c r="V16" t="s">
+        <v>171</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" t="s">
+        <v>171</v>
+      </c>
+      <c r="S17" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s">
+        <v>171</v>
+      </c>
+      <c r="V17" t="s">
+        <v>171</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" t="s">
+        <v>171</v>
+      </c>
+      <c r="V18" t="s">
+        <v>171</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s">
+        <v>171</v>
+      </c>
+      <c r="V19" t="s">
+        <v>171</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" t="s">
+        <v>171</v>
+      </c>
+      <c r="T20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V20" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
+      </c>
+      <c r="S21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T21" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>171</v>
+      </c>
+      <c r="P22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>171</v>
+      </c>
+      <c r="S22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s">
+        <v>171</v>
+      </c>
+      <c r="V22" t="s">
+        <v>171</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" t="s">
+        <v>171</v>
+      </c>
+      <c r="S23" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U23" t="s">
+        <v>171</v>
+      </c>
+      <c r="V23" t="s">
+        <v>171</v>
+      </c>
+      <c r="W23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>510</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" t="s">
+        <v>171</v>
+      </c>
+      <c r="T24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" t="s">
+        <v>171</v>
+      </c>
+      <c r="V24" t="s">
+        <v>171</v>
+      </c>
+      <c r="W24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" t="s">
+        <v>171</v>
+      </c>
+      <c r="S25" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" t="s">
+        <v>171</v>
+      </c>
+      <c r="V25" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" t="s">
+        <v>171</v>
+      </c>
+      <c r="U26" t="s">
+        <v>171</v>
+      </c>
+      <c r="V26" t="s">
+        <v>171</v>
+      </c>
+      <c r="W26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" t="s">
+        <v>171</v>
+      </c>
+      <c r="P27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>171</v>
+      </c>
+      <c r="R27" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" t="s">
+        <v>171</v>
+      </c>
+      <c r="T27" t="s">
+        <v>171</v>
+      </c>
+      <c r="U27" t="s">
+        <v>171</v>
+      </c>
+      <c r="V27" t="s">
+        <v>171</v>
+      </c>
+      <c r="W27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>171</v>
+      </c>
+      <c r="R28" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" t="s">
+        <v>171</v>
+      </c>
+      <c r="U28" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>171</v>
+      </c>
+      <c r="R29" t="s">
+        <v>171</v>
+      </c>
+      <c r="S29" t="s">
+        <v>171</v>
+      </c>
+      <c r="T29" t="s">
+        <v>171</v>
+      </c>
+      <c r="U29" t="s">
+        <v>171</v>
+      </c>
+      <c r="V29" t="s">
+        <v>171</v>
+      </c>
+      <c r="W29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>171</v>
+      </c>
+      <c r="R30" t="s">
+        <v>171</v>
+      </c>
+      <c r="S30" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" t="s">
+        <v>171</v>
+      </c>
+      <c r="V30" t="s">
+        <v>171</v>
+      </c>
+      <c r="W30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" t="s">
+        <v>171</v>
+      </c>
+      <c r="P31" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>171</v>
+      </c>
+      <c r="R31" t="s">
+        <v>171</v>
+      </c>
+      <c r="S31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" t="s">
+        <v>171</v>
+      </c>
+      <c r="U31" t="s">
+        <v>171</v>
+      </c>
+      <c r="V31" t="s">
+        <v>171</v>
+      </c>
+      <c r="W31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>171</v>
+      </c>
+      <c r="R32" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" t="s">
+        <v>171</v>
+      </c>
+      <c r="U32" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" t="s">
+        <v>171</v>
+      </c>
+      <c r="W32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33">
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>171</v>
+      </c>
+      <c r="R33" t="s">
+        <v>171</v>
+      </c>
+      <c r="S33" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" t="s">
+        <v>171</v>
+      </c>
+      <c r="U33" t="s">
+        <v>171</v>
+      </c>
+      <c r="V33" t="s">
+        <v>171</v>
+      </c>
+      <c r="W33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34">
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>171</v>
+      </c>
+      <c r="R34" t="s">
+        <v>171</v>
+      </c>
+      <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
+        <v>171</v>
+      </c>
+      <c r="U34" t="s">
+        <v>171</v>
+      </c>
+      <c r="V34" t="s">
+        <v>171</v>
+      </c>
+      <c r="W34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" t="s">
+        <v>171</v>
+      </c>
+      <c r="N35" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" t="s">
+        <v>171</v>
+      </c>
+      <c r="S35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T35" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" t="s">
+        <v>171</v>
+      </c>
+      <c r="V35" t="s">
+        <v>171</v>
+      </c>
+      <c r="W35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>171</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>171</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>171</v>
+      </c>
+      <c r="U36" t="s">
+        <v>171</v>
+      </c>
+      <c r="V36" t="s">
+        <v>171</v>
+      </c>
+      <c r="W36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>171</v>
+      </c>
+      <c r="R37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>171</v>
+      </c>
+      <c r="U37" t="s">
+        <v>171</v>
+      </c>
+      <c r="V37" t="s">
+        <v>171</v>
+      </c>
+      <c r="W37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M38" t="s">
+        <v>171</v>
+      </c>
+      <c r="N38" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" t="s">
+        <v>171</v>
+      </c>
+      <c r="S38" t="s">
+        <v>171</v>
+      </c>
+      <c r="T38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" t="s">
+        <v>171</v>
+      </c>
+      <c r="V38" t="s">
+        <v>171</v>
+      </c>
+      <c r="W38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39">
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" t="s">
+        <v>171</v>
+      </c>
+      <c r="P39" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>171</v>
+      </c>
+      <c r="R39" t="s">
+        <v>171</v>
+      </c>
+      <c r="S39" t="s">
+        <v>171</v>
+      </c>
+      <c r="T39" t="s">
+        <v>171</v>
+      </c>
+      <c r="U39" t="s">
+        <v>171</v>
+      </c>
+      <c r="V39" t="s">
+        <v>171</v>
+      </c>
+      <c r="W39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" t="s">
+        <v>171</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" t="s">
+        <v>171</v>
+      </c>
+      <c r="S40" t="s">
+        <v>171</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s">
+        <v>171</v>
+      </c>
+      <c r="V40" t="s">
+        <v>171</v>
+      </c>
+      <c r="W40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" t="s">
+        <v>171</v>
+      </c>
+      <c r="N41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>171</v>
+      </c>
+      <c r="R41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S41" t="s">
+        <v>171</v>
+      </c>
+      <c r="T41" t="s">
+        <v>171</v>
+      </c>
+      <c r="U41" t="s">
+        <v>171</v>
+      </c>
+      <c r="V41" t="s">
+        <v>171</v>
+      </c>
+      <c r="W41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" t="s">
+        <v>171</v>
+      </c>
+      <c r="S42" t="s">
+        <v>171</v>
+      </c>
+      <c r="T42" t="s">
+        <v>171</v>
+      </c>
+      <c r="U42" t="s">
+        <v>171</v>
+      </c>
+      <c r="V42" t="s">
+        <v>171</v>
+      </c>
+      <c r="W42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" t="s">
+        <v>171</v>
+      </c>
+      <c r="L43" t="s">
+        <v>171</v>
+      </c>
+      <c r="M43" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O43" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" t="s">
+        <v>171</v>
+      </c>
+      <c r="S43" t="s">
+        <v>171</v>
+      </c>
+      <c r="T43" t="s">
+        <v>171</v>
+      </c>
+      <c r="U43" t="s">
+        <v>171</v>
+      </c>
+      <c r="V43" t="s">
+        <v>171</v>
+      </c>
+      <c r="W43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>171</v>
+      </c>
+      <c r="R44" t="s">
+        <v>171</v>
+      </c>
+      <c r="S44" t="s">
+        <v>171</v>
+      </c>
+      <c r="T44" t="s">
+        <v>171</v>
+      </c>
+      <c r="U44" t="s">
+        <v>171</v>
+      </c>
+      <c r="V44" t="s">
+        <v>171</v>
+      </c>
+      <c r="W44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" t="s">
+        <v>171</v>
+      </c>
+      <c r="M45" t="s">
+        <v>171</v>
+      </c>
+      <c r="N45" t="s">
+        <v>171</v>
+      </c>
+      <c r="O45" t="s">
+        <v>171</v>
+      </c>
+      <c r="P45" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" t="s">
+        <v>171</v>
+      </c>
+      <c r="S45" t="s">
+        <v>171</v>
+      </c>
+      <c r="T45" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" t="s">
+        <v>171</v>
+      </c>
+      <c r="V45" t="s">
+        <v>171</v>
+      </c>
+      <c r="W45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46" t="s">
+        <v>171</v>
+      </c>
+      <c r="P46" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>171</v>
+      </c>
+      <c r="R46" t="s">
+        <v>171</v>
+      </c>
+      <c r="S46" t="s">
+        <v>171</v>
+      </c>
+      <c r="T46" t="s">
+        <v>171</v>
+      </c>
+      <c r="U46" t="s">
+        <v>171</v>
+      </c>
+      <c r="V46" t="s">
+        <v>171</v>
+      </c>
+      <c r="W46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" t="s">
+        <v>171</v>
+      </c>
+      <c r="M47" t="s">
+        <v>171</v>
+      </c>
+      <c r="N47" t="s">
+        <v>171</v>
+      </c>
+      <c r="O47" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>54</v>
+      </c>
+      <c r="R47" t="s">
+        <v>171</v>
+      </c>
+      <c r="S47" t="s">
+        <v>171</v>
+      </c>
+      <c r="T47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s">
+        <v>171</v>
+      </c>
+      <c r="V47" t="s">
+        <v>171</v>
+      </c>
+      <c r="W47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
@@ -6319,12 +9825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +9851,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6357,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -6403,10 +9909,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -6449,10 +9955,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -6497,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -6545,10 +10051,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
@@ -6593,10 +10099,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
@@ -6641,10 +10147,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -6711,11 +10217,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -6738,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -6784,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -6830,10 +10336,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -6878,10 +10384,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -6920,10 +10426,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
@@ -6966,10 +10472,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
@@ -7012,10 +10518,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -7054,10 +10560,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
@@ -7096,10 +10602,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
@@ -7142,10 +10648,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -7184,10 +10690,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="2">
         <v>11</v>
@@ -7232,10 +10738,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2">
         <v>12</v>
@@ -7280,10 +10786,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
@@ -7326,10 +10832,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
@@ -7374,10 +10880,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
@@ -7422,10 +10928,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
@@ -7468,10 +10974,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="2">
         <v>17</v>
@@ -7516,10 +11022,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2">
         <v>18</v>
@@ -7562,10 +11068,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="2">
         <v>19</v>
@@ -7604,10 +11110,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2">
         <v>20</v>
@@ -7652,10 +11158,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="2">
         <v>21</v>
@@ -7700,10 +11206,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
@@ -7748,10 +11254,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="2">
         <v>23</v>
@@ -7796,10 +11302,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="2">
         <v>24</v>
@@ -7864,4 +11370,5423 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" t="s">
+        <v>171</v>
+      </c>
+      <c r="V3" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" t="s">
+        <v>171</v>
+      </c>
+      <c r="W4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V5" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" t="s">
+        <v>171</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" t="s">
+        <v>171</v>
+      </c>
+      <c r="V8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" t="s">
+        <v>171</v>
+      </c>
+      <c r="W9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" t="s">
+        <v>171</v>
+      </c>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" t="s">
+        <v>171</v>
+      </c>
+      <c r="W12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14" t="s">
+        <v>171</v>
+      </c>
+      <c r="W14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15">
+        <v>53</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" t="s">
+        <v>171</v>
+      </c>
+      <c r="V15" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>171</v>
+      </c>
+      <c r="V16" t="s">
+        <v>171</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17">
+        <v>1073741823</v>
+      </c>
+      <c r="J17">
+        <v>2147483646</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" t="s">
+        <v>171</v>
+      </c>
+      <c r="S17" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s">
+        <v>171</v>
+      </c>
+      <c r="V17" t="s">
+        <v>171</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" t="s">
+        <v>171</v>
+      </c>
+      <c r="V18" t="s">
+        <v>171</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s">
+        <v>171</v>
+      </c>
+      <c r="V19" t="s">
+        <v>171</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" t="s">
+        <v>171</v>
+      </c>
+      <c r="T20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V20" t="s">
+        <v>171</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
+      </c>
+      <c r="S21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T21" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>171</v>
+      </c>
+      <c r="P22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>171</v>
+      </c>
+      <c r="S22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s">
+        <v>171</v>
+      </c>
+      <c r="V22" t="s">
+        <v>171</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
+        <v>171</v>
+      </c>
+      <c r="S23" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s">
+        <v>171</v>
+      </c>
+      <c r="V23" t="s">
+        <v>171</v>
+      </c>
+      <c r="W23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" t="s">
+        <v>171</v>
+      </c>
+      <c r="T24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" t="s">
+        <v>171</v>
+      </c>
+      <c r="V24" t="s">
+        <v>171</v>
+      </c>
+      <c r="W24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" t="s">
+        <v>171</v>
+      </c>
+      <c r="S25" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" t="s">
+        <v>171</v>
+      </c>
+      <c r="V25" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" t="s">
+        <v>171</v>
+      </c>
+      <c r="V26" t="s">
+        <v>171</v>
+      </c>
+      <c r="W26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" t="s">
+        <v>171</v>
+      </c>
+      <c r="P27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" t="s">
+        <v>171</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s">
+        <v>171</v>
+      </c>
+      <c r="V27" t="s">
+        <v>171</v>
+      </c>
+      <c r="W27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" t="s">
+        <v>171</v>
+      </c>
+      <c r="P28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" t="s">
+        <v>171</v>
+      </c>
+      <c r="S29" t="s">
+        <v>171</v>
+      </c>
+      <c r="T29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s">
+        <v>171</v>
+      </c>
+      <c r="V29" t="s">
+        <v>171</v>
+      </c>
+      <c r="W29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>171</v>
+      </c>
+      <c r="R30" t="s">
+        <v>171</v>
+      </c>
+      <c r="S30" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" t="s">
+        <v>171</v>
+      </c>
+      <c r="V30" t="s">
+        <v>171</v>
+      </c>
+      <c r="W30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" t="s">
+        <v>171</v>
+      </c>
+      <c r="N31" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" t="s">
+        <v>171</v>
+      </c>
+      <c r="P31" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" t="s">
+        <v>171</v>
+      </c>
+      <c r="S31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s">
+        <v>171</v>
+      </c>
+      <c r="V31" t="s">
+        <v>171</v>
+      </c>
+      <c r="W31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>171</v>
+      </c>
+      <c r="V32" t="s">
+        <v>171</v>
+      </c>
+      <c r="W32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" t="s">
+        <v>171</v>
+      </c>
+      <c r="S33" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" t="s">
+        <v>171</v>
+      </c>
+      <c r="V33" t="s">
+        <v>171</v>
+      </c>
+      <c r="W33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" t="s">
+        <v>171</v>
+      </c>
+      <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s">
+        <v>171</v>
+      </c>
+      <c r="V34" t="s">
+        <v>171</v>
+      </c>
+      <c r="W34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>171</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" t="s">
+        <v>171</v>
+      </c>
+      <c r="N35" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>171</v>
+      </c>
+      <c r="R35" t="s">
+        <v>171</v>
+      </c>
+      <c r="S35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T35" t="s">
+        <v>171</v>
+      </c>
+      <c r="U35" t="s">
+        <v>171</v>
+      </c>
+      <c r="V35" t="s">
+        <v>171</v>
+      </c>
+      <c r="W35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N36" t="s">
+        <v>171</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s">
+        <v>171</v>
+      </c>
+      <c r="V36" t="s">
+        <v>171</v>
+      </c>
+      <c r="W36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" t="s">
+        <v>171</v>
+      </c>
+      <c r="M37" t="s">
+        <v>171</v>
+      </c>
+      <c r="N37" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>171</v>
+      </c>
+      <c r="V37" t="s">
+        <v>171</v>
+      </c>
+      <c r="W37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M38" t="s">
+        <v>171</v>
+      </c>
+      <c r="N38" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" t="s">
+        <v>171</v>
+      </c>
+      <c r="S38" t="s">
+        <v>171</v>
+      </c>
+      <c r="T38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" t="s">
+        <v>171</v>
+      </c>
+      <c r="V38" t="s">
+        <v>171</v>
+      </c>
+      <c r="W38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" t="s">
+        <v>171</v>
+      </c>
+      <c r="M39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" t="s">
+        <v>171</v>
+      </c>
+      <c r="P39" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" t="s">
+        <v>171</v>
+      </c>
+      <c r="S39" t="s">
+        <v>171</v>
+      </c>
+      <c r="T39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" t="s">
+        <v>171</v>
+      </c>
+      <c r="V39" t="s">
+        <v>171</v>
+      </c>
+      <c r="W39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" t="s">
+        <v>171</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" t="s">
+        <v>171</v>
+      </c>
+      <c r="S40" t="s">
+        <v>171</v>
+      </c>
+      <c r="T40" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s">
+        <v>171</v>
+      </c>
+      <c r="V40" t="s">
+        <v>171</v>
+      </c>
+      <c r="W40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" t="s">
+        <v>171</v>
+      </c>
+      <c r="N41" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" t="s">
+        <v>171</v>
+      </c>
+      <c r="S41" t="s">
+        <v>171</v>
+      </c>
+      <c r="T41" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" t="s">
+        <v>171</v>
+      </c>
+      <c r="V41" t="s">
+        <v>171</v>
+      </c>
+      <c r="W41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>171</v>
+      </c>
+      <c r="R42" t="s">
+        <v>171</v>
+      </c>
+      <c r="S42" t="s">
+        <v>171</v>
+      </c>
+      <c r="T42" t="s">
+        <v>171</v>
+      </c>
+      <c r="U42" t="s">
+        <v>171</v>
+      </c>
+      <c r="V42" t="s">
+        <v>171</v>
+      </c>
+      <c r="W42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O43" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" t="s">
+        <v>171</v>
+      </c>
+      <c r="S43" t="s">
+        <v>171</v>
+      </c>
+      <c r="T43" t="s">
+        <v>171</v>
+      </c>
+      <c r="U43" t="s">
+        <v>171</v>
+      </c>
+      <c r="V43" t="s">
+        <v>171</v>
+      </c>
+      <c r="W43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" t="s">
+        <v>171</v>
+      </c>
+      <c r="O44" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" t="s">
+        <v>171</v>
+      </c>
+      <c r="S44" t="s">
+        <v>171</v>
+      </c>
+      <c r="T44" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" t="s">
+        <v>171</v>
+      </c>
+      <c r="V44" t="s">
+        <v>171</v>
+      </c>
+      <c r="W44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45">
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>171</v>
+      </c>
+      <c r="O45" t="s">
+        <v>171</v>
+      </c>
+      <c r="P45" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>171</v>
+      </c>
+      <c r="R45" t="s">
+        <v>171</v>
+      </c>
+      <c r="S45" t="s">
+        <v>171</v>
+      </c>
+      <c r="T45" t="s">
+        <v>171</v>
+      </c>
+      <c r="U45" t="s">
+        <v>171</v>
+      </c>
+      <c r="V45" t="s">
+        <v>171</v>
+      </c>
+      <c r="W45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46" t="s">
+        <v>171</v>
+      </c>
+      <c r="P46" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>171</v>
+      </c>
+      <c r="R46" t="s">
+        <v>171</v>
+      </c>
+      <c r="S46" t="s">
+        <v>171</v>
+      </c>
+      <c r="T46" t="s">
+        <v>171</v>
+      </c>
+      <c r="U46" t="s">
+        <v>171</v>
+      </c>
+      <c r="V46" t="s">
+        <v>171</v>
+      </c>
+      <c r="W46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47">
+        <v>19</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>171</v>
+      </c>
+      <c r="O47" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>171</v>
+      </c>
+      <c r="R47" t="s">
+        <v>171</v>
+      </c>
+      <c r="S47" t="s">
+        <v>171</v>
+      </c>
+      <c r="T47" t="s">
+        <v>171</v>
+      </c>
+      <c r="U47" t="s">
+        <v>171</v>
+      </c>
+      <c r="V47" t="s">
+        <v>171</v>
+      </c>
+      <c r="W47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48">
+        <v>19</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>171</v>
+      </c>
+      <c r="R48" t="s">
+        <v>171</v>
+      </c>
+      <c r="S48" t="s">
+        <v>171</v>
+      </c>
+      <c r="T48" t="s">
+        <v>171</v>
+      </c>
+      <c r="U48" t="s">
+        <v>171</v>
+      </c>
+      <c r="V48" t="s">
+        <v>171</v>
+      </c>
+      <c r="W48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>171</v>
+      </c>
+      <c r="O49" t="s">
+        <v>171</v>
+      </c>
+      <c r="P49" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>171</v>
+      </c>
+      <c r="R49" t="s">
+        <v>171</v>
+      </c>
+      <c r="S49" t="s">
+        <v>171</v>
+      </c>
+      <c r="T49" t="s">
+        <v>171</v>
+      </c>
+      <c r="U49" t="s">
+        <v>171</v>
+      </c>
+      <c r="V49" t="s">
+        <v>171</v>
+      </c>
+      <c r="W49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>171</v>
+      </c>
+      <c r="O50" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>171</v>
+      </c>
+      <c r="R50" t="s">
+        <v>171</v>
+      </c>
+      <c r="S50" t="s">
+        <v>171</v>
+      </c>
+      <c r="T50" t="s">
+        <v>171</v>
+      </c>
+      <c r="U50" t="s">
+        <v>171</v>
+      </c>
+      <c r="V50" t="s">
+        <v>171</v>
+      </c>
+      <c r="W50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51" t="s">
+        <v>171</v>
+      </c>
+      <c r="N51" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" t="s">
+        <v>171</v>
+      </c>
+      <c r="P51" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" t="s">
+        <v>171</v>
+      </c>
+      <c r="S51" t="s">
+        <v>171</v>
+      </c>
+      <c r="T51" t="s">
+        <v>171</v>
+      </c>
+      <c r="U51" t="s">
+        <v>171</v>
+      </c>
+      <c r="V51" t="s">
+        <v>171</v>
+      </c>
+      <c r="W51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" t="s">
+        <v>171</v>
+      </c>
+      <c r="J52" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>171</v>
+      </c>
+      <c r="O52" t="s">
+        <v>171</v>
+      </c>
+      <c r="P52" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>171</v>
+      </c>
+      <c r="R52" t="s">
+        <v>171</v>
+      </c>
+      <c r="S52" t="s">
+        <v>171</v>
+      </c>
+      <c r="T52" t="s">
+        <v>171</v>
+      </c>
+      <c r="U52" t="s">
+        <v>171</v>
+      </c>
+      <c r="V52" t="s">
+        <v>171</v>
+      </c>
+      <c r="W52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" t="s">
+        <v>171</v>
+      </c>
+      <c r="M53" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53" t="s">
+        <v>171</v>
+      </c>
+      <c r="O53" t="s">
+        <v>171</v>
+      </c>
+      <c r="P53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>171</v>
+      </c>
+      <c r="R53" t="s">
+        <v>171</v>
+      </c>
+      <c r="S53" t="s">
+        <v>171</v>
+      </c>
+      <c r="T53" t="s">
+        <v>171</v>
+      </c>
+      <c r="U53" t="s">
+        <v>171</v>
+      </c>
+      <c r="V53" t="s">
+        <v>171</v>
+      </c>
+      <c r="W53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" t="s">
+        <v>171</v>
+      </c>
+      <c r="M54" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54" t="s">
+        <v>171</v>
+      </c>
+      <c r="O54" t="s">
+        <v>171</v>
+      </c>
+      <c r="P54" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" t="s">
+        <v>171</v>
+      </c>
+      <c r="S54" t="s">
+        <v>171</v>
+      </c>
+      <c r="T54" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s">
+        <v>171</v>
+      </c>
+      <c r="V54" t="s">
+        <v>171</v>
+      </c>
+      <c r="W54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>11</v>
+      </c>
+      <c r="J55">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>171</v>
+      </c>
+      <c r="L55" t="s">
+        <v>171</v>
+      </c>
+      <c r="M55" t="s">
+        <v>171</v>
+      </c>
+      <c r="N55" t="s">
+        <v>171</v>
+      </c>
+      <c r="O55" t="s">
+        <v>171</v>
+      </c>
+      <c r="P55" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55" t="s">
+        <v>171</v>
+      </c>
+      <c r="S55" t="s">
+        <v>171</v>
+      </c>
+      <c r="T55" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s">
+        <v>171</v>
+      </c>
+      <c r="V55" t="s">
+        <v>171</v>
+      </c>
+      <c r="W55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>171</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>171</v>
+      </c>
+      <c r="O56" t="s">
+        <v>171</v>
+      </c>
+      <c r="P56" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>171</v>
+      </c>
+      <c r="R56" t="s">
+        <v>171</v>
+      </c>
+      <c r="S56" t="s">
+        <v>171</v>
+      </c>
+      <c r="T56" t="s">
+        <v>171</v>
+      </c>
+      <c r="U56" t="s">
+        <v>171</v>
+      </c>
+      <c r="V56" t="s">
+        <v>171</v>
+      </c>
+      <c r="W56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" t="s">
+        <v>171</v>
+      </c>
+      <c r="M57" t="s">
+        <v>171</v>
+      </c>
+      <c r="N57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O57" t="s">
+        <v>171</v>
+      </c>
+      <c r="P57" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>171</v>
+      </c>
+      <c r="R57" t="s">
+        <v>171</v>
+      </c>
+      <c r="S57" t="s">
+        <v>171</v>
+      </c>
+      <c r="T57" t="s">
+        <v>171</v>
+      </c>
+      <c r="U57" t="s">
+        <v>171</v>
+      </c>
+      <c r="V57" t="s">
+        <v>171</v>
+      </c>
+      <c r="W57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58">
+        <v>19</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>171</v>
+      </c>
+      <c r="O58" t="s">
+        <v>171</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>171</v>
+      </c>
+      <c r="R58" t="s">
+        <v>171</v>
+      </c>
+      <c r="S58" t="s">
+        <v>171</v>
+      </c>
+      <c r="T58" t="s">
+        <v>171</v>
+      </c>
+      <c r="U58" t="s">
+        <v>171</v>
+      </c>
+      <c r="V58" t="s">
+        <v>171</v>
+      </c>
+      <c r="W58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>200</v>
+      </c>
+      <c r="K59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s">
+        <v>171</v>
+      </c>
+      <c r="M59" t="s">
+        <v>171</v>
+      </c>
+      <c r="N59" t="s">
+        <v>171</v>
+      </c>
+      <c r="O59" t="s">
+        <v>171</v>
+      </c>
+      <c r="P59" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" t="s">
+        <v>171</v>
+      </c>
+      <c r="S59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T59" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s">
+        <v>171</v>
+      </c>
+      <c r="V59" t="s">
+        <v>171</v>
+      </c>
+      <c r="W59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60">
+        <v>19</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>171</v>
+      </c>
+      <c r="O60" t="s">
+        <v>171</v>
+      </c>
+      <c r="P60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>171</v>
+      </c>
+      <c r="R60" t="s">
+        <v>171</v>
+      </c>
+      <c r="S60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T60" t="s">
+        <v>171</v>
+      </c>
+      <c r="U60" t="s">
+        <v>171</v>
+      </c>
+      <c r="V60" t="s">
+        <v>171</v>
+      </c>
+      <c r="W60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s">
+        <v>171</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>171</v>
+      </c>
+      <c r="O61" t="s">
+        <v>171</v>
+      </c>
+      <c r="P61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>171</v>
+      </c>
+      <c r="R61" t="s">
+        <v>171</v>
+      </c>
+      <c r="S61" t="s">
+        <v>171</v>
+      </c>
+      <c r="T61" t="s">
+        <v>171</v>
+      </c>
+      <c r="U61" t="s">
+        <v>171</v>
+      </c>
+      <c r="V61" t="s">
+        <v>171</v>
+      </c>
+      <c r="W61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" t="s">
+        <v>171</v>
+      </c>
+      <c r="J62" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>171</v>
+      </c>
+      <c r="O62" t="s">
+        <v>171</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>171</v>
+      </c>
+      <c r="R62" t="s">
+        <v>171</v>
+      </c>
+      <c r="S62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T62" t="s">
+        <v>171</v>
+      </c>
+      <c r="U62" t="s">
+        <v>171</v>
+      </c>
+      <c r="V62" t="s">
+        <v>171</v>
+      </c>
+      <c r="W62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L63" t="s">
+        <v>171</v>
+      </c>
+      <c r="M63" t="s">
+        <v>171</v>
+      </c>
+      <c r="N63" t="s">
+        <v>171</v>
+      </c>
+      <c r="O63" t="s">
+        <v>171</v>
+      </c>
+      <c r="P63" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>171</v>
+      </c>
+      <c r="R63" t="s">
+        <v>171</v>
+      </c>
+      <c r="S63" t="s">
+        <v>171</v>
+      </c>
+      <c r="T63" t="s">
+        <v>171</v>
+      </c>
+      <c r="U63" t="s">
+        <v>171</v>
+      </c>
+      <c r="V63" t="s">
+        <v>171</v>
+      </c>
+      <c r="W63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" t="s">
+        <v>171</v>
+      </c>
+      <c r="L64" t="s">
+        <v>171</v>
+      </c>
+      <c r="M64" t="s">
+        <v>171</v>
+      </c>
+      <c r="N64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O64" t="s">
+        <v>171</v>
+      </c>
+      <c r="P64" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>171</v>
+      </c>
+      <c r="R64" t="s">
+        <v>171</v>
+      </c>
+      <c r="S64" t="s">
+        <v>171</v>
+      </c>
+      <c r="T64" t="s">
+        <v>171</v>
+      </c>
+      <c r="U64" t="s">
+        <v>171</v>
+      </c>
+      <c r="V64" t="s">
+        <v>171</v>
+      </c>
+      <c r="W64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s">
+        <v>171</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M65" t="s">
+        <v>171</v>
+      </c>
+      <c r="N65" t="s">
+        <v>171</v>
+      </c>
+      <c r="O65" t="s">
+        <v>171</v>
+      </c>
+      <c r="P65" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>171</v>
+      </c>
+      <c r="R65" t="s">
+        <v>171</v>
+      </c>
+      <c r="S65" t="s">
+        <v>171</v>
+      </c>
+      <c r="T65" t="s">
+        <v>171</v>
+      </c>
+      <c r="U65" t="s">
+        <v>171</v>
+      </c>
+      <c r="V65" t="s">
+        <v>171</v>
+      </c>
+      <c r="W65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J66" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" t="s">
+        <v>171</v>
+      </c>
+      <c r="L66" t="s">
+        <v>171</v>
+      </c>
+      <c r="M66" t="s">
+        <v>171</v>
+      </c>
+      <c r="N66" t="s">
+        <v>171</v>
+      </c>
+      <c r="O66" t="s">
+        <v>171</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>171</v>
+      </c>
+      <c r="R66" t="s">
+        <v>171</v>
+      </c>
+      <c r="S66" t="s">
+        <v>171</v>
+      </c>
+      <c r="T66" t="s">
+        <v>171</v>
+      </c>
+      <c r="U66" t="s">
+        <v>171</v>
+      </c>
+      <c r="V66" t="s">
+        <v>171</v>
+      </c>
+      <c r="W66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" t="s">
+        <v>171</v>
+      </c>
+      <c r="M67" t="s">
+        <v>171</v>
+      </c>
+      <c r="N67" t="s">
+        <v>171</v>
+      </c>
+      <c r="O67" t="s">
+        <v>171</v>
+      </c>
+      <c r="P67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>171</v>
+      </c>
+      <c r="R67" t="s">
+        <v>171</v>
+      </c>
+      <c r="S67" t="s">
+        <v>171</v>
+      </c>
+      <c r="T67" t="s">
+        <v>171</v>
+      </c>
+      <c r="U67" t="s">
+        <v>171</v>
+      </c>
+      <c r="V67" t="s">
+        <v>171</v>
+      </c>
+      <c r="W67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K68" t="s">
+        <v>171</v>
+      </c>
+      <c r="L68" t="s">
+        <v>171</v>
+      </c>
+      <c r="M68" t="s">
+        <v>171</v>
+      </c>
+      <c r="N68" t="s">
+        <v>171</v>
+      </c>
+      <c r="O68" t="s">
+        <v>171</v>
+      </c>
+      <c r="P68" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>171</v>
+      </c>
+      <c r="R68" t="s">
+        <v>171</v>
+      </c>
+      <c r="S68" t="s">
+        <v>171</v>
+      </c>
+      <c r="T68" t="s">
+        <v>171</v>
+      </c>
+      <c r="U68" t="s">
+        <v>171</v>
+      </c>
+      <c r="V68" t="s">
+        <v>171</v>
+      </c>
+      <c r="W68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s">
+        <v>171</v>
+      </c>
+      <c r="J69" t="s">
+        <v>171</v>
+      </c>
+      <c r="K69" t="s">
+        <v>171</v>
+      </c>
+      <c r="L69" t="s">
+        <v>171</v>
+      </c>
+      <c r="M69" t="s">
+        <v>171</v>
+      </c>
+      <c r="N69" t="s">
+        <v>171</v>
+      </c>
+      <c r="O69" t="s">
+        <v>171</v>
+      </c>
+      <c r="P69" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>171</v>
+      </c>
+      <c r="R69" t="s">
+        <v>171</v>
+      </c>
+      <c r="S69" t="s">
+        <v>171</v>
+      </c>
+      <c r="T69" t="s">
+        <v>171</v>
+      </c>
+      <c r="U69" t="s">
+        <v>171</v>
+      </c>
+      <c r="V69" t="s">
+        <v>171</v>
+      </c>
+      <c r="W69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" t="s">
+        <v>171</v>
+      </c>
+      <c r="L70" t="s">
+        <v>171</v>
+      </c>
+      <c r="M70" t="s">
+        <v>171</v>
+      </c>
+      <c r="N70" t="s">
+        <v>171</v>
+      </c>
+      <c r="O70" t="s">
+        <v>171</v>
+      </c>
+      <c r="P70" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>171</v>
+      </c>
+      <c r="R70" t="s">
+        <v>171</v>
+      </c>
+      <c r="S70" t="s">
+        <v>171</v>
+      </c>
+      <c r="T70" t="s">
+        <v>171</v>
+      </c>
+      <c r="U70" t="s">
+        <v>171</v>
+      </c>
+      <c r="V70" t="s">
+        <v>171</v>
+      </c>
+      <c r="W70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" t="s">
+        <v>171</v>
+      </c>
+      <c r="L71" t="s">
+        <v>171</v>
+      </c>
+      <c r="M71" t="s">
+        <v>171</v>
+      </c>
+      <c r="N71" t="s">
+        <v>171</v>
+      </c>
+      <c r="O71" t="s">
+        <v>171</v>
+      </c>
+      <c r="P71" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>171</v>
+      </c>
+      <c r="R71" t="s">
+        <v>171</v>
+      </c>
+      <c r="S71" t="s">
+        <v>171</v>
+      </c>
+      <c r="T71" t="s">
+        <v>171</v>
+      </c>
+      <c r="U71" t="s">
+        <v>171</v>
+      </c>
+      <c r="V71" t="s">
+        <v>171</v>
+      </c>
+      <c r="W71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" t="s">
+        <v>259</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" t="s">
+        <v>171</v>
+      </c>
+      <c r="K72" t="s">
+        <v>171</v>
+      </c>
+      <c r="L72" t="s">
+        <v>171</v>
+      </c>
+      <c r="M72" t="s">
+        <v>171</v>
+      </c>
+      <c r="N72" t="s">
+        <v>171</v>
+      </c>
+      <c r="O72" t="s">
+        <v>171</v>
+      </c>
+      <c r="P72" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>171</v>
+      </c>
+      <c r="R72" t="s">
+        <v>171</v>
+      </c>
+      <c r="S72" t="s">
+        <v>171</v>
+      </c>
+      <c r="T72" t="s">
+        <v>171</v>
+      </c>
+      <c r="U72" t="s">
+        <v>171</v>
+      </c>
+      <c r="V72" t="s">
+        <v>171</v>
+      </c>
+      <c r="W72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s">
+        <v>171</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" t="s">
+        <v>171</v>
+      </c>
+      <c r="L73" t="s">
+        <v>171</v>
+      </c>
+      <c r="M73" t="s">
+        <v>171</v>
+      </c>
+      <c r="N73" t="s">
+        <v>171</v>
+      </c>
+      <c r="O73" t="s">
+        <v>171</v>
+      </c>
+      <c r="P73" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>171</v>
+      </c>
+      <c r="R73" t="s">
+        <v>171</v>
+      </c>
+      <c r="S73" t="s">
+        <v>171</v>
+      </c>
+      <c r="T73" t="s">
+        <v>171</v>
+      </c>
+      <c r="U73" t="s">
+        <v>171</v>
+      </c>
+      <c r="V73" t="s">
+        <v>171</v>
+      </c>
+      <c r="W73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s">
+        <v>171</v>
+      </c>
+      <c r="J74" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" t="s">
+        <v>171</v>
+      </c>
+      <c r="L74" t="s">
+        <v>171</v>
+      </c>
+      <c r="M74" t="s">
+        <v>171</v>
+      </c>
+      <c r="N74" t="s">
+        <v>171</v>
+      </c>
+      <c r="O74" t="s">
+        <v>171</v>
+      </c>
+      <c r="P74" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>171</v>
+      </c>
+      <c r="R74" t="s">
+        <v>171</v>
+      </c>
+      <c r="S74" t="s">
+        <v>171</v>
+      </c>
+      <c r="T74" t="s">
+        <v>171</v>
+      </c>
+      <c r="U74" t="s">
+        <v>171</v>
+      </c>
+      <c r="V74" t="s">
+        <v>171</v>
+      </c>
+      <c r="W74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>171</v>
+      </c>
+      <c r="L75" t="s">
+        <v>171</v>
+      </c>
+      <c r="M75" t="s">
+        <v>171</v>
+      </c>
+      <c r="N75" t="s">
+        <v>171</v>
+      </c>
+      <c r="O75" t="s">
+        <v>171</v>
+      </c>
+      <c r="P75" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>54</v>
+      </c>
+      <c r="R75" t="s">
+        <v>171</v>
+      </c>
+      <c r="S75" t="s">
+        <v>171</v>
+      </c>
+      <c r="T75" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s">
+        <v>171</v>
+      </c>
+      <c r="V75" t="s">
+        <v>171</v>
+      </c>
+      <c r="W75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>171</v>
+      </c>
+      <c r="L76" t="s">
+        <v>171</v>
+      </c>
+      <c r="M76" t="s">
+        <v>171</v>
+      </c>
+      <c r="N76" t="s">
+        <v>171</v>
+      </c>
+      <c r="O76" t="s">
+        <v>171</v>
+      </c>
+      <c r="P76" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>54</v>
+      </c>
+      <c r="R76" t="s">
+        <v>171</v>
+      </c>
+      <c r="S76" t="s">
+        <v>171</v>
+      </c>
+      <c r="T76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s">
+        <v>171</v>
+      </c>
+      <c r="V76" t="s">
+        <v>171</v>
+      </c>
+      <c r="W76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>264</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s">
+        <v>171</v>
+      </c>
+      <c r="J77" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" t="s">
+        <v>171</v>
+      </c>
+      <c r="M77" t="s">
+        <v>171</v>
+      </c>
+      <c r="N77" t="s">
+        <v>171</v>
+      </c>
+      <c r="O77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>171</v>
+      </c>
+      <c r="R77" t="s">
+        <v>171</v>
+      </c>
+      <c r="S77" t="s">
+        <v>171</v>
+      </c>
+      <c r="T77" t="s">
+        <v>171</v>
+      </c>
+      <c r="U77" t="s">
+        <v>171</v>
+      </c>
+      <c r="V77" t="s">
+        <v>171</v>
+      </c>
+      <c r="W77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s">
+        <v>171</v>
+      </c>
+      <c r="J78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K78" t="s">
+        <v>171</v>
+      </c>
+      <c r="L78" t="s">
+        <v>171</v>
+      </c>
+      <c r="M78" t="s">
+        <v>171</v>
+      </c>
+      <c r="N78" t="s">
+        <v>171</v>
+      </c>
+      <c r="O78" t="s">
+        <v>171</v>
+      </c>
+      <c r="P78" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>171</v>
+      </c>
+      <c r="R78" t="s">
+        <v>171</v>
+      </c>
+      <c r="S78" t="s">
+        <v>171</v>
+      </c>
+      <c r="T78" t="s">
+        <v>171</v>
+      </c>
+      <c r="U78" t="s">
+        <v>171</v>
+      </c>
+      <c r="V78" t="s">
+        <v>171</v>
+      </c>
+      <c r="W78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>